--- a/permit/doc/角色字段表.xlsx
+++ b/permit/doc/角色字段表.xlsx
@@ -2,19 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="13995" windowHeight="6255"/>
+    <workbookView xWindow="11835" yWindow="135" windowWidth="19440" windowHeight="15315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="130">
   <si>
     <t>土地挂牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,19 +69,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">面积总数 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划开工日期</t>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋栋号及层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205683.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个镇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张槎街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年10月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑劳务分包企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办提前介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（是或否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市禅城区合作经济联合社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉江市建筑工程总公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市建辉监理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东佛山地质工程勘察院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市城匠建筑设计院有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市红建建筑劳务有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,19 +414,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿地未来商业中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋栋号及层数</t>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,27 +458,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目负责人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18818701569</t>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +583,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +635,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,13 +683,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,9 +1015,166 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="89">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,18 +1473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I40"/>
+  <dimension ref="A2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="8" width="13.625" customWidth="1"/>
@@ -594,185 +1512,277 @@
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
+      <c r="B9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="I11" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
+      <c r="B12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
+      <c r="B15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
@@ -782,127 +1792,229 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
+      <c r="B17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
+      <c r="B22" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
+      <c r="B26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
+      <c r="B27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
@@ -915,116 +2027,1026 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
+      <c r="B30" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
+      <c r="B31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
+      <c r="B32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="29" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
+      <c r="B34" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="29" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="7"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="4"/>
+      <c r="B35" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="29" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="7"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="4"/>
+      <c r="B36" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="29" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="7"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="29" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="7"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="29" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="7"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="4"/>
+      <c r="B40" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="7"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B65" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B66" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="25"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="7"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="7"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="7"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="7"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="7"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="7"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="7"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="7"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="7"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="7"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="7"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="7"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="7"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="7"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="7"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="7"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B95" s="7"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B67:I67"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1034,5 +3056,10 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
   <picture r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/permit/doc/角色字段表.xlsx
+++ b/permit/doc/角色字段表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="11835" yWindow="135" windowWidth="19440" windowHeight="15315"/>
@@ -542,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,14 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -990,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1038,33 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,32 +1092,14 @@
     <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="89">
@@ -1475,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1519,7 +1536,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1538,12 +1555,12 @@
         <v>13</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1564,12 +1581,12 @@
       <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1584,12 +1601,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1604,12 +1621,12 @@
       <c r="H6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1622,15 +1639,15 @@
         <v>21</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8"/>
@@ -1642,12 +1659,12 @@
       <c r="H8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1662,12 +1679,12 @@
       <c r="H9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1682,12 +1699,12 @@
       <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1702,12 +1719,12 @@
       <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1722,12 +1739,12 @@
       <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1740,12 +1757,12 @@
         <v>45</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1760,12 +1777,12 @@
       <c r="H14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1780,7 +1797,7 @@
       <c r="H15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1792,10 +1809,10 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9"/>
@@ -1808,12 +1825,12 @@
         <v>21</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="9"/>
@@ -1828,12 +1845,12 @@
         <v>21</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="9"/>
@@ -1848,12 +1865,12 @@
         <v>20</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="9"/>
@@ -1866,22 +1883,22 @@
         <v>20</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="28"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="9"/>
@@ -1894,10 +1911,10 @@
         <v>20</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="28"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="9"/>
@@ -1912,16 +1929,16 @@
       <c r="H23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="9"/>
@@ -1932,12 +1949,12 @@
       <c r="H24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="9"/>
@@ -1952,12 +1969,12 @@
       <c r="H25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="9"/>
@@ -1972,12 +1989,12 @@
       <c r="H26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="9"/>
@@ -1992,12 +2009,12 @@
       <c r="H27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="9"/>
@@ -2012,7 +2029,7 @@
       <c r="H28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2027,7 +2044,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="11"/>
@@ -2041,19 +2058,19 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="11"/>
@@ -2068,12 +2085,12 @@
       <c r="H32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="11"/>
@@ -2086,12 +2103,12 @@
         <v>45</v>
       </c>
       <c r="H33" s="11"/>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="11"/>
@@ -2104,12 +2121,12 @@
         <v>45</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="11"/>
@@ -2122,12 +2139,12 @@
         <v>45</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="11"/>
@@ -2140,12 +2157,12 @@
         <v>45</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="11"/>
@@ -2158,12 +2175,12 @@
         <v>45</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="11"/>
@@ -2176,12 +2193,12 @@
         <v>45</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="11"/>
@@ -2194,12 +2211,12 @@
         <v>45</v>
       </c>
       <c r="H39" s="11"/>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="11"/>
@@ -2212,10 +2229,10 @@
         <v>45</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="29"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="11"/>
@@ -2228,10 +2245,10 @@
         <v>45</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="29"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="11"/>
@@ -2244,10 +2261,10 @@
         <v>45</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="29"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="11"/>
@@ -2262,17 +2279,17 @@
       <c r="H43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="33" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="11"/>
@@ -2282,12 +2299,12 @@
       <c r="H44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="29" t="s">
+      <c r="I44" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="11"/>
@@ -2302,12 +2319,12 @@
       <c r="H45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="11"/>
@@ -2322,12 +2339,12 @@
       <c r="H46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="11"/>
@@ -2342,12 +2359,12 @@
       <c r="H47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="29" t="s">
+      <c r="I47" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="11"/>
@@ -2362,7 +2379,7 @@
       <c r="H48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2377,7 +2394,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C50" s="12"/>
@@ -2390,10 +2407,10 @@
         <v>20</v>
       </c>
       <c r="H50" s="12"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="12"/>
@@ -2406,22 +2423,22 @@
         <v>20</v>
       </c>
       <c r="H51" s="12"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="12"/>
@@ -2434,10 +2451,10 @@
         <v>20</v>
       </c>
       <c r="H53" s="12"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="12"/>
@@ -2450,10 +2467,10 @@
         <v>70</v>
       </c>
       <c r="H54" s="12"/>
-      <c r="I54" s="30"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="12"/>
@@ -2468,10 +2485,10 @@
       <c r="H55" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="30"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="12"/>
@@ -2486,10 +2503,10 @@
       <c r="H56" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I56" s="30"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="12"/>
@@ -2504,10 +2521,10 @@
       <c r="H57" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I57" s="30"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="12"/>
@@ -2522,10 +2539,10 @@
       <c r="H58" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I58" s="30"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="12"/>
@@ -2540,10 +2557,10 @@
       <c r="H59" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I59" s="30"/>
+      <c r="I59" s="21"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="12"/>
@@ -2558,10 +2575,10 @@
       <c r="H60" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I60" s="30"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="12"/>
@@ -2576,10 +2593,10 @@
       <c r="H61" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I61" s="30"/>
+      <c r="I61" s="21"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="12"/>
@@ -2594,10 +2611,10 @@
       <c r="H62" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I62" s="30"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="12"/>
@@ -2612,10 +2629,10 @@
       <c r="H63" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I63" s="30"/>
+      <c r="I63" s="21"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="12"/>
@@ -2630,10 +2647,10 @@
       <c r="H64" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I64" s="30"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="12"/>
@@ -2646,12 +2663,12 @@
         <v>109</v>
       </c>
       <c r="H65" s="12"/>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="12"/>
@@ -2664,24 +2681,24 @@
         <v>110</v>
       </c>
       <c r="H66" s="12"/>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C68" s="12"/>
@@ -2696,10 +2713,10 @@
       <c r="H68" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I68" s="30"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C69" s="12"/>
@@ -2714,10 +2731,10 @@
       <c r="H69" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I69" s="30"/>
+      <c r="I69" s="21"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C70" s="12"/>
@@ -2732,10 +2749,10 @@
       <c r="H70" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="30"/>
+      <c r="I70" s="21"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="12"/>
@@ -2750,10 +2767,10 @@
       <c r="H71" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I71" s="30"/>
+      <c r="I71" s="21"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C72" s="12"/>
@@ -2768,10 +2785,10 @@
       <c r="H72" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I72" s="30"/>
+      <c r="I72" s="21"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C73" s="12"/>
@@ -2786,10 +2803,10 @@
       <c r="H73" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I73" s="30"/>
+      <c r="I73" s="21"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C74" s="12"/>
@@ -2804,10 +2821,10 @@
       <c r="H74" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I74" s="30"/>
+      <c r="I74" s="21"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="12"/>
@@ -2822,10 +2839,10 @@
       <c r="H75" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I75" s="30"/>
+      <c r="I75" s="21"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C76" s="12"/>
@@ -2840,10 +2857,10 @@
       <c r="H76" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I76" s="30"/>
+      <c r="I76" s="21"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C77" s="12"/>
@@ -2858,17 +2875,17 @@
       <c r="H77" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I77" s="30"/>
+      <c r="I77" s="21"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="25"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="30"/>
+      <c r="I78" s="21"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7"/>

--- a/permit/doc/角色字段表.xlsx
+++ b/permit/doc/角色字段表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="135" windowWidth="19440" windowHeight="15315"/>
+    <workbookView xWindow="11835" yWindow="165" windowWidth="19440" windowHeight="15285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
   <si>
     <t>土地挂牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,177 +77,468 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预售房屋栋号及层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205683.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个镇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张槎街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年10月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑劳务分包企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办提前介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（是或否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市禅城区合作经济联合社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉江市建筑工程总公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市建辉监理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东佛山地质工程勘察院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市城匠建筑设计院有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市红建建筑劳务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>绿地未来商业中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预售房屋栋号及层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205683.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可建建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个镇街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张槎街道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014年10月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛山铂晟置业有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,286 +546,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>许可规划住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监理单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘察单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑劳务分包企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增施工许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目负责人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已办提前介入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（是或否）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市禅城区合作经济联合社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廉江市建筑工程总公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市建辉监理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东佛山地质工程勘察院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市城匠建筑设计院有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市红建建筑劳务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
+    <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,6 +1077,15 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,15 +1111,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1492,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1529,10 +1541,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1556,12 +1568,12 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="17" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -1576,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1593,21 +1605,21 @@
         <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="17" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -1616,18 +1628,18 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
@@ -1636,36 +1648,36 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>7</v>
@@ -1674,18 +1686,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>7</v>
@@ -1694,18 +1706,18 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
@@ -1714,18 +1726,18 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -1734,18 +1746,18 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>7</v>
@@ -1754,16 +1766,16 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>7</v>
@@ -1772,18 +1784,18 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -1792,13 +1804,13 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1822,16 +1834,16 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="19" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
@@ -1839,19 +1851,19 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
@@ -1859,19 +1871,19 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="19" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
@@ -1880,26 +1892,26 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+      <c r="B21" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
@@ -1908,14 +1920,14 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -1924,22 +1936,22 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="32" t="s">
-        <v>7</v>
+      <c r="D24" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1947,15 +1959,15 @@
         <v>12</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
@@ -1967,15 +1979,15 @@
         <v>12</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
@@ -1987,15 +1999,15 @@
         <v>12</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
@@ -2007,15 +2019,15 @@
         <v>12</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
@@ -2027,10 +2039,10 @@
         <v>12</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
@@ -2045,12 +2057,12 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2058,329 +2070,329 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="20" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="20" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="20" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="20" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="20" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="20"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="33" t="s">
-        <v>74</v>
+      <c r="E44" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -2395,485 +2407,485 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
+      <c r="B52" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="33"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="16" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G57" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I57" s="21"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G59" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I60" s="21"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G61" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I61" s="21"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="16" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I62" s="21"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G63" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I63" s="21"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="16" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I64" s="21"/>
     </row>
     <row r="65" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B65" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B66" s="16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
+      <c r="B67" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="33"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I69" s="21"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G70" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I70" s="21"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I71" s="21"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G72" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I72" s="21"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I73" s="21"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G74" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I74" s="21"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="16" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I75" s="21"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I76" s="21"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="16" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I77" s="21"/>
     </row>

--- a/permit/doc/角色字段表.xlsx
+++ b/permit/doc/角色字段表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="11835" yWindow="165" windowWidth="19440" windowHeight="15285"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="135">
   <si>
     <t>土地挂牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,259 +77,459 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205683.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个镇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张槎街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年10月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑劳务分包企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（是或否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办提前介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预售房屋栋号及层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205683.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个镇街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张槎街道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014年10月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监理单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘察单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑劳务分包企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增施工许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目负责人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已办提前介入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（是或否）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>禅城区玉带路16号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,198 +555,6 @@
   </si>
   <si>
     <t>佛山市红建建筑劳务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可建建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿地未来商业中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +634,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1010,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1127,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1505,7 +1527,7 @@
   <dimension ref="A2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,10 +1563,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1568,12 +1590,12 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="17" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -1588,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1605,21 +1627,21 @@
         <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="17" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -1628,18 +1650,18 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
@@ -1648,36 +1670,36 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="I8" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>7</v>
@@ -1686,18 +1708,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>7</v>
@@ -1706,18 +1728,18 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
@@ -1726,18 +1748,18 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="I11" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -1746,18 +1768,18 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="I12" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>7</v>
@@ -1766,16 +1788,16 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>7</v>
@@ -1784,18 +1806,18 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -1804,13 +1826,13 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1834,16 +1856,16 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="19" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
@@ -1851,19 +1873,19 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
@@ -1871,19 +1893,19 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="19" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
@@ -1892,14 +1914,14 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -1911,7 +1933,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
@@ -1920,14 +1942,14 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -1936,22 +1958,22 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1959,15 +1981,15 @@
         <v>12</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
@@ -1979,15 +2001,15 @@
         <v>12</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
@@ -1999,15 +2021,15 @@
         <v>12</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
@@ -2019,15 +2041,15 @@
         <v>12</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
@@ -2039,10 +2061,10 @@
         <v>12</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
@@ -2057,12 +2079,12 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2071,7 +2093,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -2083,316 +2105,316 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="20" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="20" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="20" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="20" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="20" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="20" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="20" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="20"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="24" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I45" s="20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I46" s="20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I47" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I48" s="20" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -2407,39 +2429,39 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="31" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
@@ -2451,255 +2473,255 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>62</v>
+      <c r="F55" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="G55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
-        <v>62</v>
+      <c r="F56" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="21"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="16" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="16" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I60" s="21"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" s="21"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I62" s="21"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="21"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I64" s="21"/>
     </row>
     <row r="65" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B65" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B66" s="16" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="21" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="31" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
@@ -2711,181 +2733,181 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G68" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I69" s="21"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="21"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="16" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I71" s="21"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="16" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="21"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I73" s="21"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" s="21"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I75" s="21"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I76" s="21"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I77" s="21"/>
     </row>

--- a/permit/doc/角色字段表.xlsx
+++ b/permit/doc/角色字段表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="11835" yWindow="165" windowWidth="19440" windowHeight="15285"/>
@@ -470,91 +470,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可规划住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办提前介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>许可规划建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可规划住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目负责人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已办提前介入</t>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋栋号及层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市禅城区合作经济联合社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉江市建筑工程总公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市建辉监理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东佛山地质工程勘察院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市城匠建筑设计院有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市红建建筑劳务有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许可规划建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋栋号及层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市禅城区合作经济联合社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廉江市建筑工程总公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市建辉监理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东佛山地质工程勘察院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市城匠建筑设计院有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市红建建筑劳务有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,6 +1102,12 @@
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,12 +1133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1682,7 +1682,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1920,20 +1920,20 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
@@ -1949,7 +1949,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -1969,11 +1969,11 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
@@ -2092,20 +2092,20 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -2267,7 +2267,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2319,12 +2319,12 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
@@ -2460,16 +2460,16 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="16" t="s">
@@ -2505,12 +2505,12 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="25" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="12" t="s">
@@ -2528,7 +2528,7 @@
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="26" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="12" t="s">
@@ -2685,7 +2685,7 @@
     </row>
     <row r="65" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B65" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="66" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B66" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -2720,16 +2720,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="35"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">

--- a/permit/doc/角色字段表.xlsx
+++ b/permit/doc/角色字段表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="165" windowWidth="19440" windowHeight="15285"/>
+    <workbookView xWindow="11835" yWindow="195" windowWidth="19440" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
